--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15600" windowHeight="2790" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15450" windowHeight="2790" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Service_Edit" sheetId="15" r:id="rId15"/>
     <sheet name="Facility_Edit" sheetId="16" r:id="rId16"/>
     <sheet name="SetWorkHours_Edit" sheetId="17" r:id="rId17"/>
+    <sheet name="Scheduling" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:J4"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>UserName</t>
   </si>
@@ -241,6 +242,15 @@
   </si>
   <si>
     <t>Upload14</t>
+  </si>
+  <si>
+    <t>No Visit</t>
+  </si>
+  <si>
+    <t>CancelReson</t>
+  </si>
+  <si>
+    <t>Cancel</t>
   </si>
 </sst>
 </file>
@@ -933,6 +943,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
@@ -1159,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView zoomScale="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
